--- a/medicine/Sexualité et sexologie/Mademoiselle_de_Paris_(film,_2010)/Mademoiselle_de_Paris_(film,_2010).xlsx
+++ b/medicine/Sexualité et sexologie/Mademoiselle_de_Paris_(film,_2010)/Mademoiselle_de_Paris_(film,_2010).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mademoiselle de Paris est le premier film pornographique français coproduit, en 2010, par Marc Dorcel et des internautes via la plate-forme communautaire MyDorcel. Il a été réalisé par Hervé Bodilis avec au casting Jade Laroche, Jessica Fiorentino, Nina Roberts, Claire Castel, Anna Polina, Suzie Carina, Black Angelika, Aleska Diamond, James Brossman, Eric Park, J.P.X., Ian Scott et Alex.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Parisienne de jour comme de nuit sait se montrer sexy pour détourner les regards sur elle et faire des rencontres très insolites…
 </t>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Mademoiselle de Paris
 Réalisateur : Hervé Bodilis
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aleska Diamond
 Alex
@@ -632,8 +650,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nominations
-AVN Awards 2012 :
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AVN Awards 2012 :
 Meilleur film étranger (best foreign feature)
 Meilleur réalisateur - film étranger (best director – foreign release) pour Hervé Bodilis</t>
         </is>
